--- a/biology/Botanique/Hernandia/Hernandia.xlsx
+++ b/biology/Botanique/Hernandia/Hernandia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hernandia est un genre de plantes à fleurs contenant 27 espèces d'arbustes de la famille des Hernandiaceae. Les espèces sont réparties sur l'Amérique centrale, l'Asie du Sud-Est, le Nord de l'Océanie et Madagascar.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fleurs sont monoïques ; les mâles ont un calice (corolle selon Carl von Linné) cotonneux, à six divisions, dont trois alternes, intérieures et plus petites ; à la base de celles-ci, on observe six glandes brièvement slipitées autour de trois étamines dressées, à filets courts et réunis inférieurement. Les fleurs femelles ont un calice cotonneux et double : l'extérieur infère, court, presque entier ; l'intérieur (corolle selon Linné) supère, à huit divisions caduques, dont quatre alternes, situées extérieurement ; l'ovaire est placé sous le calice intérieur et seulement entouré par l'extérieur ; le style est court, ceint à sa base de quatre glandes stipitées ; le stigmate est large, infundibuliforme ; le fruit est drupacé, à huit côtes saillantes, contenant une noix globuleuse, monosperme, enveloppée par le calice extérieur persistant et considérablement accru après la floraison, comme dans le genre Physalis. Les graines sont huileuses.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Plants of the World online (POWO)                (20 novembre 2020)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Plants of the World online (POWO)                (20 novembre 2020) :
 Hernandia albiflora (C.T.White) Kubitzki
 Hernandia beninensis Welw. ex Henriq.
 Hernandia bivalvis Benth.
